--- a/branches/master/StructureDefinition-BvoConditionCode.xlsx
+++ b/branches/master/StructureDefinition-BvoConditionCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T16:17:08+00:00</t>
+    <t>2022-02-25T16:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BvoConditionCode.xlsx
+++ b/branches/master/StructureDefinition-BvoConditionCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T16:33:50+00:00</t>
+    <t>2022-03-04T07:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -331,7 +331,7 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>required</t>
+    <t>extensible</t>
   </si>
   <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/BvoConditionCodeVS</t>

--- a/branches/master/StructureDefinition-BvoConditionCode.xlsx
+++ b/branches/master/StructureDefinition-BvoConditionCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T07:40:22+00:00</t>
+    <t>2022-03-04T08:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BvoConditionCode.xlsx
+++ b/branches/master/StructureDefinition-BvoConditionCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:50:25+00:00</t>
+    <t>2022-03-04T09:19:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BvoConditionCode.xlsx
+++ b/branches/master/StructureDefinition-BvoConditionCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T09:19:21+00:00</t>
+    <t>2022-03-11T15:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BvoConditionCode.xlsx
+++ b/branches/master/StructureDefinition-BvoConditionCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T15:39:18+00:00</t>
+    <t>2022-03-11T16:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
